--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf17-Fgfr3.xlsx
@@ -540,40 +540,40 @@
         <v>0.177754</v>
       </c>
       <c r="I2">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J2">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N2">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P2">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q2">
-        <v>0.2500561110151111</v>
+        <v>0.2223665409164444</v>
       </c>
       <c r="R2">
-        <v>2.250504999136</v>
+        <v>2.001298868248</v>
       </c>
       <c r="S2">
-        <v>0.08714654839821262</v>
+        <v>0.4521155259201944</v>
       </c>
       <c r="T2">
-        <v>0.08714654839821262</v>
+        <v>0.4521155259201944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.177754</v>
       </c>
       <c r="I3">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J3">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>3.889343</v>
       </c>
       <c r="O3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P3">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q3">
         <v>0.07681625284688888</v>
@@ -632,10 +632,10 @@
         <v>0.691346275622</v>
       </c>
       <c r="S3">
-        <v>0.02677107657683359</v>
+        <v>0.1561827620826271</v>
       </c>
       <c r="T3">
-        <v>0.02677107657683359</v>
+        <v>0.1561827620826271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.177754</v>
       </c>
       <c r="I4">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="J4">
-        <v>0.129311749608618</v>
+        <v>0.6594814792829158</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N4">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P4">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q4">
-        <v>0.044171513492</v>
+        <v>0.02517371898444444</v>
       </c>
       <c r="R4">
-        <v>0.397543621428</v>
+        <v>0.22656347086</v>
       </c>
       <c r="S4">
-        <v>0.01539412463357177</v>
+        <v>0.05118319128009426</v>
       </c>
       <c r="T4">
-        <v>0.01539412463357177</v>
+        <v>0.05118319128009427</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.030594</v>
+      </c>
+      <c r="H5">
+        <v>0.091782</v>
+      </c>
+      <c r="I5">
+        <v>0.3405185207170842</v>
+      </c>
+      <c r="J5">
+        <v>0.3405185207170842</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.398954</v>
-      </c>
-      <c r="H5">
-        <v>1.196862</v>
-      </c>
-      <c r="I5">
-        <v>0.8706882503913821</v>
-      </c>
-      <c r="J5">
-        <v>0.8706882503913821</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>4.220261333333333</v>
+        <v>3.752937333333333</v>
       </c>
       <c r="N5">
-        <v>12.660784</v>
+        <v>11.258812</v>
       </c>
       <c r="O5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="P5">
-        <v>0.6739259863235564</v>
+        <v>0.6855621274031838</v>
       </c>
       <c r="Q5">
-        <v>1.683690139978667</v>
+        <v>0.114817364776</v>
       </c>
       <c r="R5">
-        <v>15.153211259808</v>
+        <v>1.033356282984</v>
       </c>
       <c r="S5">
-        <v>0.5867794379253438</v>
+        <v>0.2334466014829893</v>
       </c>
       <c r="T5">
-        <v>0.5867794379253438</v>
+        <v>0.2334466014829893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H6">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I6">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J6">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.889343</v>
       </c>
       <c r="O6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628361</v>
       </c>
       <c r="P6">
-        <v>0.2070274097896007</v>
+        <v>0.2368266084628362</v>
       </c>
       <c r="Q6">
-        <v>0.5172229824073333</v>
+        <v>0.039663519914</v>
       </c>
       <c r="R6">
-        <v>4.655006841666</v>
+        <v>0.356971679226</v>
       </c>
       <c r="S6">
-        <v>0.1802563332127671</v>
+        <v>0.08064384638020904</v>
       </c>
       <c r="T6">
-        <v>0.1802563332127671</v>
+        <v>0.08064384638020906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.398954</v>
+        <v>0.030594</v>
       </c>
       <c r="H7">
-        <v>1.196862</v>
+        <v>0.091782</v>
       </c>
       <c r="I7">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="J7">
-        <v>0.8706882503913821</v>
+        <v>0.3405185207170842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.745494</v>
+        <v>0.4248633333333334</v>
       </c>
       <c r="N7">
-        <v>2.236482</v>
+        <v>1.27459</v>
       </c>
       <c r="O7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398003</v>
       </c>
       <c r="P7">
-        <v>0.119046603886843</v>
+        <v>0.07761126413398005</v>
       </c>
       <c r="Q7">
-        <v>0.297417813276</v>
+        <v>0.01299826882</v>
       </c>
       <c r="R7">
-        <v>2.676760319484</v>
+        <v>0.11698441938</v>
       </c>
       <c r="S7">
-        <v>0.1036524792532713</v>
+        <v>0.02642807285388577</v>
       </c>
       <c r="T7">
-        <v>0.1036524792532713</v>
+        <v>0.02642807285388577</v>
       </c>
     </row>
   </sheetData>
